--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_65.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_65.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,682 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>low</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>schubert-winterreise_205</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07480106100795755</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['C:maj/E', 'G:maj/D', 'A:min7/C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[['A', 'E', 'A:maj6']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:01:05.020000', '0:01:08.080000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:04.511043', '0:00:10.664331')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(68.82, 84.54)]</t>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:02.580000', '0:01:09.180000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1053361053361053</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[['G:7', 'C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[('0:00:23.140000', '0:00:32.760000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:12.394648', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_93</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.74, 8.62)]</t>
+          <t>[('0:00:16.260000', '0:00:21.140000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>[('0:00:32.200000', '0:00:33.700000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6875</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(2.86, 7.5)]</t>
+          <t>[('0:00:58.080000', '0:01:05.660000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:41.060000', '0:01:42.380000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'C:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1017241379310345</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['E', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(51.28, 62.78)]</t>
+          <t>[['E', 'E', 'B/3']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[('0:00:12.672857', '0:00:20.660521')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:04.383333', '0:00:11.070680')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_283</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_162</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1875</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(60.180884, 68.841927)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(34.290634, 42.011269)]</t>
+          <t>[('0:01:28.860000', '0:01:37.740000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3tGhRLgcCP6SIZU3tbGl7l</t>
+          <t>[('0:01:46.960000', '0:01:59.340000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(40.82, 43.62)]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:00:25.720000', '0:00:45.260000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_167</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5052631578947369</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:01:57.540000', '0:02:02.700000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.727609', '0:00:10.723990')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4181184668989547</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F', 'F', 'F', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['D', 'D', 'D/7', 'D/6', 'D/5']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(9.62, 14.18)]</t>
+          <t>[('0:00:00.590000', '0:00:09.550000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.325509', '0:00:04.348503')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'F:maj', 'A#:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[['A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(84.62, 91.74), (15.6, 24.08)]</t>
+          <t>[('0:00:35.460000', '0:00:50.440000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:18.160000', '0:00:47.440000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07307692307692308</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(32.920657, 39.410634)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
+          <t>[('0:00:34.300000', '0:00:49.840000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_100</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(34.86, 39.7)]</t>
+          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(32.44, 34.8)]</t>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:14.460000', '0:00:46.680000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(46.52, 48.94)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[('0:01:59.320000', '0:02:04.320000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_94</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(84.62, 91.74), (30.24, 38.5)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(2.58, 5.02), (0.22, 3.44)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
